--- a/User Data/Summary.xlsx
+++ b/User Data/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECO ENTERPRISES\eco enterprises\User Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA8E7F1-613C-4533-8502-63830FE5957C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E754E2-CC1E-43CA-A4C5-40DDBB51E95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t xml:space="preserve">                                                            Bank Al Habib Limited                                Date: 01-12-2020  </t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -159,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -205,17 +202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -264,18 +250,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -284,7 +272,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -299,18 +287,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,61 +302,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -403,111 +326,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -950,57 +845,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="22" customWidth="1"/>
-    <col min="11" max="26" width="9.140625" style="22" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="13" customWidth="1"/>
+    <col min="11" max="41" width="9.140625" style="13" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -1008,66 +903,64 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1076,94 +969,91 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="16" t="s">
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:J13" si="0">SUM(E10:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12">
-        <f>SUM(E10:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <f>SUM(F10:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <f>SUM(J10:J11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A15:B15"/>
+  <mergeCells count="13">
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="F7:J7"/>
@@ -1185,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1193,49 +1083,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="22" customWidth="1"/>
-    <col min="11" max="26" width="9.140625" style="22" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="13" customWidth="1"/>
+    <col min="11" max="41" width="9.140625" style="13" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -1243,66 +1133,64 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1311,92 +1199,91 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="16" t="s">
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:J13" si="0">SUM(E10:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12">
-        <f>SUM(E10:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <f>SUM(F10:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <f>SUM(J10:J11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="13">
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="F7:J7"/>
@@ -1410,8 +1297,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
